--- a/docs/ebnf.xlsx
+++ b/docs/ebnf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoe\git\K2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{826A2F00-2A2D-451E-9267-9AE5F75DCE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9619D5B-450A-4302-B915-3F8541C9470A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{80E392AA-210C-4728-BF23-B018366DD114}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>=</t>
   </si>
@@ -47,164 +47,215 @@
     <t>(</t>
   </si>
   <si>
-    <t>b_a</t>
-  </si>
-  <si>
-    <t>b_activate</t>
-  </si>
-  <si>
-    <t>b_an</t>
-  </si>
-  <si>
-    <t>b_and</t>
-  </si>
-  <si>
-    <t>b_any</t>
-  </si>
-  <si>
-    <t>b_by</t>
-  </si>
-  <si>
-    <t>b_change</t>
-  </si>
-  <si>
-    <t>b_cloning</t>
-  </si>
-  <si>
-    <t>b_close_par</t>
-  </si>
-  <si>
-    <t>b_conclude</t>
-  </si>
-  <si>
-    <t>b_create</t>
-  </si>
-  <si>
-    <t>b_deactivate</t>
-  </si>
-  <si>
-    <t>b_delete</t>
-  </si>
-  <si>
-    <t>b_different</t>
-  </si>
-  <si>
-    <t>b_equal</t>
-  </si>
-  <si>
-    <t>b_equal_sym</t>
-  </si>
-  <si>
-    <t>b_focus</t>
-  </si>
-  <si>
-    <t>b_for</t>
-  </si>
-  <si>
-    <t>b_greater</t>
-  </si>
-  <si>
-    <t>b_halt</t>
-  </si>
-  <si>
-    <t>b_hide</t>
-  </si>
-  <si>
-    <t>b_if</t>
-  </si>
-  <si>
-    <t>b_inform</t>
-  </si>
-  <si>
-    <t>b_initially</t>
-  </si>
-  <si>
-    <t>b_insert</t>
-  </si>
-  <si>
-    <t>b_instance</t>
-  </si>
-  <si>
-    <t>b_invoke</t>
-  </si>
-  <si>
-    <t>b_is</t>
-  </si>
-  <si>
-    <t>b_less</t>
-  </si>
-  <si>
-    <t>b_move</t>
-  </si>
-  <si>
-    <t>b_named</t>
-  </si>
-  <si>
-    <t>b_of</t>
-  </si>
-  <si>
-    <t>b_open_par</t>
-  </si>
-  <si>
-    <t>b_operator</t>
-  </si>
-  <si>
-    <t>b_or</t>
-  </si>
-  <si>
-    <t>b_parent</t>
-  </si>
-  <si>
-    <t>b_remove</t>
-  </si>
-  <si>
-    <t>b_rotate</t>
-  </si>
-  <si>
-    <t>b_set</t>
-  </si>
-  <si>
-    <t>b_show</t>
-  </si>
-  <si>
-    <t>b_start</t>
-  </si>
-  <si>
-    <t>b_than</t>
-  </si>
-  <si>
-    <t>b_that</t>
-  </si>
-  <si>
-    <t>b_the</t>
-  </si>
-  <si>
-    <t>b_then</t>
-  </si>
-  <si>
-    <t>b_to</t>
-  </si>
-  <si>
-    <t>b_transfer</t>
-  </si>
-  <si>
-    <t>b_unconditionally</t>
-  </si>
-  <si>
-    <t>b_when</t>
-  </si>
-  <si>
-    <t>b_whenever</t>
-  </si>
-  <si>
-    <t>b_whose</t>
+    <t>B_a</t>
+  </si>
+  <si>
+    <t>B_activate</t>
+  </si>
+  <si>
+    <t>B_an</t>
+  </si>
+  <si>
+    <t>B_and</t>
+  </si>
+  <si>
+    <t>B_any</t>
+  </si>
+  <si>
+    <t>B_by</t>
+  </si>
+  <si>
+    <t>B_change</t>
+  </si>
+  <si>
+    <t>B_cloning</t>
+  </si>
+  <si>
+    <t>B_close_par</t>
+  </si>
+  <si>
+    <t>B_conclude</t>
+  </si>
+  <si>
+    <t>B_create</t>
+  </si>
+  <si>
+    <t>B_deactivate</t>
+  </si>
+  <si>
+    <t>B_delete</t>
+  </si>
+  <si>
+    <t>B_different</t>
+  </si>
+  <si>
+    <t>B_equal</t>
+  </si>
+  <si>
+    <t>B_equal_sym</t>
+  </si>
+  <si>
+    <t>B_focus</t>
+  </si>
+  <si>
+    <t>B_for</t>
+  </si>
+  <si>
+    <t>B_greater</t>
+  </si>
+  <si>
+    <t>B_halt</t>
+  </si>
+  <si>
+    <t>B_hide</t>
+  </si>
+  <si>
+    <t>B_if</t>
+  </si>
+  <si>
+    <t>B_inform</t>
+  </si>
+  <si>
+    <t>B_initially</t>
+  </si>
+  <si>
+    <t>B_insert</t>
+  </si>
+  <si>
+    <t>B_instance</t>
+  </si>
+  <si>
+    <t>B_invoke</t>
+  </si>
+  <si>
+    <t>B_is</t>
+  </si>
+  <si>
+    <t>B_less</t>
+  </si>
+  <si>
+    <t>B_move</t>
+  </si>
+  <si>
+    <t>B_named</t>
+  </si>
+  <si>
+    <t>B_of</t>
+  </si>
+  <si>
+    <t>B_open_par</t>
+  </si>
+  <si>
+    <t>B_operator</t>
+  </si>
+  <si>
+    <t>B_or</t>
+  </si>
+  <si>
+    <t>B_parent</t>
+  </si>
+  <si>
+    <t>B_remove</t>
+  </si>
+  <si>
+    <t>B_rotate</t>
+  </si>
+  <si>
+    <t>B_set</t>
+  </si>
+  <si>
+    <t>B_show</t>
+  </si>
+  <si>
+    <t>B_start</t>
+  </si>
+  <si>
+    <t>B_than</t>
+  </si>
+  <si>
+    <t>B_that</t>
+  </si>
+  <si>
+    <t>B_the</t>
+  </si>
+  <si>
+    <t>B_then</t>
+  </si>
+  <si>
+    <t>B_to</t>
+  </si>
+  <si>
+    <t>B_transfer</t>
+  </si>
+  <si>
+    <t>B_unconditionally</t>
+  </si>
+  <si>
+    <t>B_when</t>
+  </si>
+  <si>
+    <t>B_whenever</t>
+  </si>
+  <si>
+    <t>B_whose</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>breakpoints</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>task-queue</t>
+  </si>
+  <si>
+    <t>first-task</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>B_comma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +276,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,13 +304,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44848F1A-E230-4CCD-904A-638EB14AB1EA}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D18" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +649,7 @@
       </c>
       <c r="D1" t="str">
         <f>_xlfn.CONCAT("""",B1,""":",A1,",")</f>
-        <v>"a":b_a,</v>
+        <v>"a":B_a,</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -597,12 +657,12 @@
         <v>4</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B8" si="0">MID(A2,3,100)</f>
+        <f>MID(A2,3,100)</f>
         <v>activate</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D51" si="1">_xlfn.CONCAT("""",B2,""":",A2,",")</f>
-        <v>"activate":b_activate,</v>
+        <f>_xlfn.CONCAT("""",B2,""":",A2,",")</f>
+        <v>"activate":B_activate,</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -610,12 +670,12 @@
         <v>5</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(A3,3,100)</f>
         <v>an</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="1"/>
-        <v>"an":b_an,</v>
+        <f>_xlfn.CONCAT("""",B3,""":",A3,",")</f>
+        <v>"an":B_an,</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,12 +683,12 @@
         <v>6</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(A4,3,100)</f>
         <v>and</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="1"/>
-        <v>"and":b_and,</v>
+        <f>_xlfn.CONCAT("""",B4,""":",A4,",")</f>
+        <v>"and":B_and,</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,615 +696,819 @@
         <v>7</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(A5,3,100)</f>
         <v>any</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v>"any":b_any,</v>
+        <f>_xlfn.CONCAT("""",B5,""":",A5,",")</f>
+        <v>"any":B_any,</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>by</v>
+      <c r="A6" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B6),"-","_")</f>
+        <v>B_are</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="1"/>
-        <v>"by":b_by,</v>
+        <f>_xlfn.CONCAT("""",B6,""":",A6,",")</f>
+        <v>"are":B_are,</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>change</v>
+      <c r="A7" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B7),"-","_")</f>
+        <v>B_at</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v>"change":b_change,</v>
+        <f>_xlfn.CONCAT("""",B7,""":",A7,",")</f>
+        <v>"at":B_at,</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>cloning</v>
+      <c r="A8" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B8),"-","_")</f>
+        <v>B_blue</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>"cloning":b_cloning,</v>
+        <f>_xlfn.CONCAT("""",B8,""":",A8,",")</f>
+        <v>"blue":B_blue,</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
+      <c r="A9" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B9),"-","_")</f>
+        <v>B_breakpoints</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="1"/>
-        <v>")":b_close_par,</v>
+        <f>_xlfn.CONCAT("""",B9,""":",A9,",")</f>
+        <v>"breakpoints":B_breakpoints,</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" ref="B10:B15" si="2">MID(A10,3,100)</f>
-        <v>conclude</v>
+        <f>MID(A10,3,100)</f>
+        <v>by</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v>"conclude":b_conclude,</v>
+        <f>_xlfn.CONCAT("""",B10,""":",A10,",")</f>
+        <v>"by":B_by,</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="2"/>
-        <v>create</v>
+        <f>MID(A11,3,100)</f>
+        <v>change</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="1"/>
-        <v>"create":b_create,</v>
+        <f>_xlfn.CONCAT("""",B11,""":",A11,",")</f>
+        <v>"change":B_change,</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="2"/>
-        <v>deactivate</v>
+        <f>MID(A12,3,100)</f>
+        <v>cloning</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v>"deactivate":b_deactivate,</v>
+        <f>_xlfn.CONCAT("""",B12,""":",A12,",")</f>
+        <v>"cloning":B_cloning,</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="2"/>
-        <v>delete</v>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="1"/>
-        <v>"delete":b_delete,</v>
+        <f>_xlfn.CONCAT("""",B13,""":",A13,",")</f>
+        <v>")":B_close_par,</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="2"/>
-        <v>different</v>
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="1"/>
-        <v>"different":b_different,</v>
+        <f>_xlfn.CONCAT("""",B14,""":",A14,",")</f>
+        <v>",":B_comma,</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="2"/>
-        <v>equal</v>
+        <f>MID(A15,3,100)</f>
+        <v>conclude</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="1"/>
-        <v>"equal":b_equal,</v>
+        <f>_xlfn.CONCAT("""",B15,""":",A15,",")</f>
+        <v>"conclude":B_conclude,</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="B16" t="str">
+        <f>MID(A16,3,100)</f>
+        <v>create</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="1"/>
-        <v>"=":b_equal_sym,</v>
+        <f>_xlfn.CONCAT("""",B16,""":",A16,",")</f>
+        <v>"create":B_create,</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" ref="B17:B51" si="3">MID(A17,3,100)</f>
-        <v>focus</v>
+        <f>MID(A17,3,100)</f>
+        <v>deactivate</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="1"/>
-        <v>"focus":b_focus,</v>
+        <f>_xlfn.CONCAT("""",B17,""":",A17,",")</f>
+        <v>"deactivate":B_deactivate,</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="3"/>
-        <v>for</v>
+      <c r="A18" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B18),"-","_")</f>
+        <v>B_degrees</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>"for":b_for,</v>
+        <f>_xlfn.CONCAT("""",B18,""":",A18,",")</f>
+        <v>"degrees":B_degrees,</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="3"/>
-        <v>greater</v>
+        <f>MID(A19,3,100)</f>
+        <v>delete</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>"greater":b_greater,</v>
+        <f>_xlfn.CONCAT("""",B19,""":",A19,",")</f>
+        <v>"delete":B_delete,</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="3"/>
-        <v>halt</v>
+        <f>MID(A20,3,100)</f>
+        <v>different</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v>"halt":b_halt,</v>
+        <f>_xlfn.CONCAT("""",B20,""":",A20,",")</f>
+        <v>"different":B_different,</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="3"/>
-        <v>hide</v>
+      <c r="A21" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B21),"-","_")</f>
+        <v>B_enabled</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="1"/>
-        <v>"hide":b_hide,</v>
+        <f>_xlfn.CONCAT("""",B21,""":",A21,",")</f>
+        <v>"enabled":B_enabled,</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="3"/>
-        <v>if</v>
+      <c r="A22" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B22),"-","_")</f>
+        <v>B_end</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="1"/>
-        <v>"if":b_if,</v>
+        <f>_xlfn.CONCAT("""",B22,""":",A22,",")</f>
+        <v>"end":B_end,</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="3"/>
-        <v>inform</v>
+        <f>MID(A23,3,100)</f>
+        <v>equal</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v>"inform":b_inform,</v>
+        <f>_xlfn.CONCAT("""",B23,""":",A23,",")</f>
+        <v>"equal":B_equal,</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="3"/>
-        <v>initially</v>
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="1"/>
-        <v>"initially":b_initially,</v>
+        <f>_xlfn.CONCAT("""",B24,""":",A24,",")</f>
+        <v>"=":B_equal_sym,</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="3"/>
-        <v>insert</v>
+      <c r="A25" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B25),"-","_")</f>
+        <v>B_first_task</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="1"/>
-        <v>"insert":b_insert,</v>
+        <f>_xlfn.CONCAT("""",B25,""":",A25,",")</f>
+        <v>"first-task":B_first_task,</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="3"/>
-        <v>instance</v>
+        <f>MID(A26,3,100)</f>
+        <v>focus</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="1"/>
-        <v>"instance":b_instance,</v>
+        <f>_xlfn.CONCAT("""",B26,""":",A26,",")</f>
+        <v>"focus":B_focus,</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="3"/>
-        <v>invoke</v>
+        <f>MID(A27,3,100)</f>
+        <v>for</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="1"/>
-        <v>"invoke":b_invoke,</v>
+        <f>_xlfn.CONCAT("""",B27,""":",A27,",")</f>
+        <v>"for":B_for,</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="3"/>
-        <v>is</v>
+      <c r="A28" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B28),"-","_")</f>
+        <v>B_from</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="1"/>
-        <v>"is":b_is,</v>
+        <f>_xlfn.CONCAT("""",B28,""":",A28,",")</f>
+        <v>"from":B_from,</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="3"/>
-        <v>less</v>
+        <f>MID(A29,3,100)</f>
+        <v>greater</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="1"/>
-        <v>"less":b_less,</v>
+        <f>_xlfn.CONCAT("""",B29,""":",A29,",")</f>
+        <v>"greater":B_greater,</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="3"/>
-        <v>move</v>
+      <c r="A30" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B30),"-","_")</f>
+        <v>B_green</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="1"/>
-        <v>"move":b_move,</v>
+        <f>_xlfn.CONCAT("""",B30,""":",A30,",")</f>
+        <v>"green":B_green,</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="3"/>
-        <v>named</v>
+        <f>MID(A31,3,100)</f>
+        <v>halt</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="1"/>
-        <v>"named":b_named,</v>
+        <f>_xlfn.CONCAT("""",B31,""":",A31,",")</f>
+        <v>"halt":B_halt,</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="3"/>
-        <v>of</v>
+        <f>MID(A32,3,100)</f>
+        <v>hide</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="1"/>
-        <v>"of":b_of,</v>
+        <f>_xlfn.CONCAT("""",B32,""":",A32,",")</f>
+        <v>"hide":B_hide,</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="B33" t="str">
+        <f>MID(A33,3,100)</f>
+        <v>if</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="1"/>
-        <v>"(":b_open_par,</v>
+        <f>_xlfn.CONCAT("""",B33,""":",A33,",")</f>
+        <v>"if":B_if,</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="3"/>
-        <v>operator</v>
+        <f>MID(A34,3,100)</f>
+        <v>inform</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="1"/>
-        <v>"operator":b_operator,</v>
+        <f>_xlfn.CONCAT("""",B34,""":",A34,",")</f>
+        <v>"inform":B_inform,</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="3"/>
-        <v>or</v>
+        <f>MID(A35,3,100)</f>
+        <v>initially</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="1"/>
-        <v>"or":b_or,</v>
+        <f>_xlfn.CONCAT("""",B35,""":",A35,",")</f>
+        <v>"initially":B_initially,</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="3"/>
-        <v>parent</v>
+        <f>MID(A36,3,100)</f>
+        <v>insert</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="1"/>
-        <v>"parent":b_parent,</v>
+        <f>_xlfn.CONCAT("""",B36,""":",A36,",")</f>
+        <v>"insert":B_insert,</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="3"/>
-        <v>remove</v>
+        <f>MID(A37,3,100)</f>
+        <v>instance</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="1"/>
-        <v>"remove":b_remove,</v>
+        <f>_xlfn.CONCAT("""",B37,""":",A37,",")</f>
+        <v>"instance":B_instance,</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="3"/>
-        <v>rotate</v>
+        <f>MID(A38,3,100)</f>
+        <v>invoke</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="1"/>
-        <v>"rotate":b_rotate,</v>
+        <f>_xlfn.CONCAT("""",B38,""":",A38,",")</f>
+        <v>"invoke":B_invoke,</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="3"/>
-        <v>set</v>
+        <f>MID(A39,3,100)</f>
+        <v>is</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="1"/>
-        <v>"set":b_set,</v>
+        <f>_xlfn.CONCAT("""",B39,""":",A39,",")</f>
+        <v>"is":B_is,</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="3"/>
-        <v>show</v>
+        <f>MID(A40,3,100)</f>
+        <v>less</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="1"/>
-        <v>"show":b_show,</v>
+        <f>_xlfn.CONCAT("""",B40,""":",A40,",")</f>
+        <v>"less":B_less,</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="3"/>
-        <v>start</v>
+        <f>MID(A41,3,100)</f>
+        <v>move</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="1"/>
-        <v>"start":b_start,</v>
+        <f>_xlfn.CONCAT("""",B41,""":",A41,",")</f>
+        <v>"move":B_move,</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="3"/>
-        <v>than</v>
+        <f>MID(A42,3,100)</f>
+        <v>named</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="1"/>
-        <v>"than":b_than,</v>
+        <f>_xlfn.CONCAT("""",B42,""":",A42,",")</f>
+        <v>"named":B_named,</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="3"/>
-        <v>that</v>
+        <f>MID(A43,3,100)</f>
+        <v>of</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="1"/>
-        <v>"that":b_that,</v>
+        <f>_xlfn.CONCAT("""",B43,""":",A43,",")</f>
+        <v>"of":B_of,</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="str">
-        <f t="shared" si="3"/>
-        <v>the</v>
+      <c r="A44" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B44),"-","_")</f>
+        <v>B_on</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="1"/>
-        <v>"the":b_the,</v>
+        <f>_xlfn.CONCAT("""",B44,""":",A44,",")</f>
+        <v>"on":B_on,</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="str">
-        <f t="shared" si="3"/>
-        <v>then</v>
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="1"/>
-        <v>"then":b_then,</v>
+        <f>_xlfn.CONCAT("""",B45,""":",A45,",")</f>
+        <v>"(":B_open_par,</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="3"/>
-        <v>to</v>
+        <f>MID(A46,3,100)</f>
+        <v>operator</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="1"/>
-        <v>"to":b_to,</v>
+        <f>_xlfn.CONCAT("""",B46,""":",A46,",")</f>
+        <v>"operator":B_operator,</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="3"/>
-        <v>transfer</v>
+        <f>MID(A47,3,100)</f>
+        <v>or</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="1"/>
-        <v>"transfer":b_transfer,</v>
+        <f>_xlfn.CONCAT("""",B47,""":",A47,",")</f>
+        <v>"or":B_or,</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="3"/>
-        <v>unconditionally</v>
+        <f>MID(A48,3,100)</f>
+        <v>parent</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="1"/>
-        <v>"unconditionally":b_unconditionally,</v>
+        <f>_xlfn.CONCAT("""",B48,""":",A48,",")</f>
+        <v>"parent":B_parent,</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="str">
-        <f t="shared" si="3"/>
-        <v>when</v>
+      <c r="A49" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B49),"-","_")</f>
+        <v>B_red</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="1"/>
-        <v>"when":b_when,</v>
+        <f>_xlfn.CONCAT("""",B49,""":",A49,",")</f>
+        <v>"red":B_red,</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="3"/>
-        <v>whenever</v>
+        <f>MID(A50,3,100)</f>
+        <v>remove</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="1"/>
-        <v>"whenever":b_whenever,</v>
+        <f>_xlfn.CONCAT("""",B50,""":",A50,",")</f>
+        <v>"remove":B_remove,</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="str">
+        <f>MID(A51,3,100)</f>
+        <v>rotate</v>
+      </c>
+      <c r="D51" t="str">
+        <f>_xlfn.CONCAT("""",B51,""":",A51,",")</f>
+        <v>"rotate":B_rotate,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" t="str">
+        <f>MID(A52,3,100)</f>
+        <v>set</v>
+      </c>
+      <c r="D52" t="str">
+        <f>_xlfn.CONCAT("""",B52,""":",A52,",")</f>
+        <v>"set":B_set,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="str">
+        <f>MID(A53,3,100)</f>
+        <v>show</v>
+      </c>
+      <c r="D53" t="str">
+        <f>_xlfn.CONCAT("""",B53,""":",A53,",")</f>
+        <v>"show":B_show,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="str">
+        <f>MID(A54,3,100)</f>
+        <v>start</v>
+      </c>
+      <c r="D54" t="str">
+        <f>_xlfn.CONCAT("""",B54,""":",A54,",")</f>
+        <v>"start":B_start,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B55),"-","_")</f>
+        <v>B_task_queue</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" t="str">
+        <f>_xlfn.CONCAT("""",B55,""":",A55,",")</f>
+        <v>"task-queue":B_task_queue,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" t="str">
+        <f>MID(A56,3,100)</f>
+        <v>than</v>
+      </c>
+      <c r="D56" t="str">
+        <f>_xlfn.CONCAT("""",B56,""":",A56,",")</f>
+        <v>"than":B_than,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" t="str">
+        <f>MID(A57,3,100)</f>
+        <v>that</v>
+      </c>
+      <c r="D57" t="str">
+        <f>_xlfn.CONCAT("""",B57,""":",A57,",")</f>
+        <v>"that":B_that,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" t="str">
+        <f>MID(A58,3,100)</f>
+        <v>the</v>
+      </c>
+      <c r="D58" t="str">
+        <f>_xlfn.CONCAT("""",B58,""":",A58,",")</f>
+        <v>"the":B_the,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" t="str">
+        <f>MID(A59,3,100)</f>
+        <v>then</v>
+      </c>
+      <c r="D59" t="str">
+        <f>_xlfn.CONCAT("""",B59,""":",A59,",")</f>
+        <v>"then":B_then,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" t="str">
+        <f>MID(A60,3,100)</f>
+        <v>to</v>
+      </c>
+      <c r="D60" t="str">
+        <f>_xlfn.CONCAT("""",B60,""":",A60,",")</f>
+        <v>"to":B_to,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" t="str">
+        <f>MID(A61,3,100)</f>
+        <v>transfer</v>
+      </c>
+      <c r="D61" t="str">
+        <f>_xlfn.CONCAT("""",B61,""":",A61,",")</f>
+        <v>"transfer":B_transfer,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" t="str">
+        <f>MID(A62,3,100)</f>
+        <v>unconditionally</v>
+      </c>
+      <c r="D62" t="str">
+        <f>_xlfn.CONCAT("""",B62,""":",A62,",")</f>
+        <v>"unconditionally":B_unconditionally,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" t="str">
+        <f>MID(A63,3,100)</f>
+        <v>when</v>
+      </c>
+      <c r="D63" t="str">
+        <f>_xlfn.CONCAT("""",B63,""":",A63,",")</f>
+        <v>"when":B_when,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" t="str">
+        <f>MID(A64,3,100)</f>
+        <v>whenever</v>
+      </c>
+      <c r="D64" t="str">
+        <f>_xlfn.CONCAT("""",B64,""":",A64,",")</f>
+        <v>"whenever":B_whenever,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B51" t="str">
-        <f t="shared" si="3"/>
+      <c r="B65" t="str">
+        <f>MID(A65,3,100)</f>
         <v>whose</v>
       </c>
-      <c r="D51" t="str">
-        <f t="shared" si="1"/>
-        <v>"whose":b_whose,</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
+      <c r="D65" t="str">
+        <f>_xlfn.CONCAT("""",B65,""":",A65,",")</f>
+        <v>"whose":B_whose,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B66),"-","_")</f>
+        <v>B_with</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" t="str">
+        <f>_xlfn.CONCAT("""",B66,""":",A66,",")</f>
+        <v>"with":B_with,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B67),"-","_")</f>
+        <v>B_yellow</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" t="str">
+        <f>_xlfn.CONCAT("""",B67,""":",A67,",")</f>
+        <v>"yellow":B_yellow,</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A51">
-    <sortCondition ref="A1:A51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D67">
+    <sortCondition ref="A1:A67"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/ebnf.xlsx
+++ b/docs/ebnf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoe\git\K2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9619D5B-450A-4302-B915-3F8541C9470A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BA431D-4CBC-4C83-8163-E247597F696C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{80E392AA-210C-4728-BF23-B018366DD114}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>=</t>
   </si>
@@ -249,6 +249,60 @@
   </si>
   <si>
     <t>B_comma</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>validity</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>NormalDistribution</t>
+  </si>
+  <si>
+    <t>LinearRegression</t>
+  </si>
+  <si>
+    <t>MonteCarlo</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>Inference</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>List</t>
   </si>
 </sst>
 </file>
@@ -620,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -628,15 +682,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44848F1A-E230-4CCD-904A-638EB14AB1EA}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D18" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -648,7 +705,7 @@
         <v>a</v>
       </c>
       <c r="D1" t="str">
-        <f>_xlfn.CONCAT("""",B1,""":",A1,",")</f>
+        <f t="shared" ref="D1:D32" si="0">_xlfn.CONCAT("""",B1,""":",A1,",")</f>
         <v>"a":B_a,</v>
       </c>
     </row>
@@ -661,854 +718,1088 @@
         <v>activate</v>
       </c>
       <c r="D2" t="str">
-        <f>_xlfn.CONCAT("""",B2,""":",A2,",")</f>
+        <f t="shared" si="0"/>
         <v>"activate":B_activate,</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="str">
-        <f>MID(A3,3,100)</f>
-        <v>an</v>
+      <c r="A3" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B3),"-","_")</f>
+        <v>B_add</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
       </c>
       <c r="D3" t="str">
-        <f>_xlfn.CONCAT("""",B3,""":",A3,",")</f>
-        <v>"an":B_an,</v>
+        <f t="shared" si="0"/>
+        <v>"add":B_add,</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="str">
-        <f>MID(A4,3,100)</f>
-        <v>and</v>
+      <c r="A4" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B4),"-","_")</f>
+        <v>B_alter</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
       </c>
       <c r="D4" t="str">
-        <f>_xlfn.CONCAT("""",B4,""":",A4,",")</f>
-        <v>"and":B_and,</v>
+        <f t="shared" si="0"/>
+        <v>"alter":B_alter,</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="str">
         <f>MID(A5,3,100)</f>
+        <v>an</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>"an":B_an,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="str">
+        <f>MID(A6,3,100)</f>
+        <v>and</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>"and":B_and,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="str">
+        <f>MID(A7,3,100)</f>
         <v>any</v>
       </c>
-      <c r="D5" t="str">
-        <f>_xlfn.CONCAT("""",B5,""":",A5,",")</f>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
         <v>"any":B_any,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B6),"-","_")</f>
-        <v>B_are</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="str">
-        <f>_xlfn.CONCAT("""",B6,""":",A6,",")</f>
-        <v>"are":B_are,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B7),"-","_")</f>
-        <v>B_at</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="str">
-        <f>_xlfn.CONCAT("""",B7,""":",A7,",")</f>
-        <v>"at":B_at,</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("B_",B8),"-","_")</f>
-        <v>B_blue</v>
+        <v>B_are</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D8" t="str">
-        <f>_xlfn.CONCAT("""",B8,""":",A8,",")</f>
-        <v>"blue":B_blue,</v>
+        <f t="shared" si="0"/>
+        <v>"are":B_are,</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("B_",B9),"-","_")</f>
+        <v>B_as</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>"as":B_as,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B10),"-","_")</f>
+        <v>B_at</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>"at":B_at,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B11),"-","_")</f>
+        <v>B_blue</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>"blue":B_blue,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B12),"-","_")</f>
         <v>B_breakpoints</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="str">
-        <f>_xlfn.CONCAT("""",B9,""":",A9,",")</f>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
         <v>"breakpoints":B_breakpoints,</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="str">
-        <f>MID(A10,3,100)</f>
-        <v>by</v>
-      </c>
-      <c r="D10" t="str">
-        <f>_xlfn.CONCAT("""",B10,""":",A10,",")</f>
-        <v>"by":B_by,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="str">
-        <f>MID(A11,3,100)</f>
-        <v>change</v>
-      </c>
-      <c r="D11" t="str">
-        <f>_xlfn.CONCAT("""",B11,""":",A11,",")</f>
-        <v>"change":B_change,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="str">
-        <f>MID(A12,3,100)</f>
-        <v>cloning</v>
-      </c>
-      <c r="D12" t="str">
-        <f>_xlfn.CONCAT("""",B12,""":",A12,",")</f>
-        <v>"cloning":B_cloning,</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B13" t="str">
+        <f>MID(A13,3,100)</f>
+        <v>by</v>
       </c>
       <c r="D13" t="str">
-        <f>_xlfn.CONCAT("""",B13,""":",A13,",")</f>
-        <v>")":B_close_par,</v>
+        <f t="shared" si="0"/>
+        <v>"by":B_by,</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>69</v>
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="str">
+        <f>MID(A14,3,100)</f>
+        <v>change</v>
       </c>
       <c r="D14" t="str">
-        <f>_xlfn.CONCAT("""",B14,""":",A14,",")</f>
-        <v>",":B_comma,</v>
+        <f t="shared" si="0"/>
+        <v>"change":B_change,</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="str">
         <f>MID(A15,3,100)</f>
-        <v>conclude</v>
+        <v>cloning</v>
       </c>
       <c r="D15" t="str">
-        <f>_xlfn.CONCAT("""",B15,""":",A15,",")</f>
-        <v>"conclude":B_conclude,</v>
+        <f t="shared" si="0"/>
+        <v>"cloning":B_cloning,</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="str">
-        <f>MID(A16,3,100)</f>
-        <v>create</v>
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
       </c>
       <c r="D16" t="str">
-        <f>_xlfn.CONCAT("""",B16,""":",A16,",")</f>
-        <v>"create":B_create,</v>
+        <f t="shared" si="0"/>
+        <v>")":B_close_par,</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="str">
-        <f>MID(A17,3,100)</f>
-        <v>deactivate</v>
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="D17" t="str">
-        <f>_xlfn.CONCAT("""",B17,""":",A17,",")</f>
-        <v>"deactivate":B_deactivate,</v>
+        <f t="shared" si="0"/>
+        <v>",":B_comma,</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B18),"-","_")</f>
-        <v>B_degrees</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>67</v>
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="str">
+        <f>MID(A18,3,100)</f>
+        <v>conclude</v>
       </c>
       <c r="D18" t="str">
-        <f>_xlfn.CONCAT("""",B18,""":",A18,",")</f>
-        <v>"degrees":B_degrees,</v>
+        <f t="shared" si="0"/>
+        <v>"conclude":B_conclude,</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" t="str">
         <f>MID(A19,3,100)</f>
-        <v>delete</v>
+        <v>create</v>
       </c>
       <c r="D19" t="str">
-        <f>_xlfn.CONCAT("""",B19,""":",A19,",")</f>
-        <v>"delete":B_delete,</v>
+        <f t="shared" si="0"/>
+        <v>"create":B_create,</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="str">
-        <f>MID(A20,3,100)</f>
-        <v>different</v>
+      <c r="A20" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B20)),"-","_")</f>
+        <v>B_date</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
       </c>
       <c r="D20" t="str">
-        <f>_xlfn.CONCAT("""",B20,""":",A20,",")</f>
-        <v>"different":B_different,</v>
+        <f t="shared" si="0"/>
+        <v>"Date":B_date,</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B21),"-","_")</f>
-        <v>B_enabled</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>57</v>
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="str">
+        <f>MID(A21,3,100)</f>
+        <v>deactivate</v>
       </c>
       <c r="D21" t="str">
-        <f>_xlfn.CONCAT("""",B21,""":",A21,",")</f>
-        <v>"enabled":B_enabled,</v>
+        <f t="shared" si="0"/>
+        <v>"deactivate":B_deactivate,</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("B_",B22),"-","_")</f>
-        <v>B_end</v>
+        <v>B_degrees</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D22" t="str">
-        <f>_xlfn.CONCAT("""",B22,""":",A22,",")</f>
-        <v>"end":B_end,</v>
+        <f t="shared" si="0"/>
+        <v>"degrees":B_degrees,</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B23" t="str">
         <f>MID(A23,3,100)</f>
-        <v>equal</v>
+        <v>delete</v>
       </c>
       <c r="D23" t="str">
-        <f>_xlfn.CONCAT("""",B23,""":",A23,",")</f>
-        <v>"equal":B_equal,</v>
+        <f t="shared" si="0"/>
+        <v>"delete":B_delete,</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="B24" t="str">
+        <f>MID(A24,3,100)</f>
+        <v>different</v>
       </c>
       <c r="D24" t="str">
-        <f>_xlfn.CONCAT("""",B24,""":",A24,",")</f>
-        <v>"=":B_equal_sym,</v>
+        <f t="shared" si="0"/>
+        <v>"different":B_different,</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("B_",B25),"-","_")</f>
-        <v>B_first_task</v>
+        <v>B_enabled</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D25" t="str">
-        <f>_xlfn.CONCAT("""",B25,""":",A25,",")</f>
-        <v>"first-task":B_first_task,</v>
+        <f t="shared" si="0"/>
+        <v>"enabled":B_enabled,</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" t="str">
-        <f>MID(A26,3,100)</f>
-        <v>focus</v>
+      <c r="A26" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B26),"-","_")</f>
+        <v>B_end</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D26" t="str">
-        <f>_xlfn.CONCAT("""",B26,""":",A26,",")</f>
-        <v>"focus":B_focus,</v>
+        <f t="shared" si="0"/>
+        <v>"end":B_end,</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B27" t="str">
         <f>MID(A27,3,100)</f>
-        <v>for</v>
+        <v>equal</v>
       </c>
       <c r="D27" t="str">
-        <f>_xlfn.CONCAT("""",B27,""":",A27,",")</f>
-        <v>"for":B_for,</v>
+        <f t="shared" si="0"/>
+        <v>"equal":B_equal,</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B28),"-","_")</f>
-        <v>B_from</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>62</v>
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="D28" t="str">
-        <f>_xlfn.CONCAT("""",B28,""":",A28,",")</f>
-        <v>"from":B_from,</v>
+        <f t="shared" si="0"/>
+        <v>"=":B_equal_sym,</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" t="str">
-        <f>MID(A29,3,100)</f>
-        <v>greater</v>
+      <c r="A29" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B29),"-","_")</f>
+        <v>B_first_task</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D29" t="str">
-        <f>_xlfn.CONCAT("""",B29,""":",A29,",")</f>
-        <v>"greater":B_greater,</v>
+        <f t="shared" si="0"/>
+        <v>"first-task":B_first_task,</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B30),"-","_")</f>
-        <v>B_green</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>66</v>
+      <c r="A30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="str">
+        <f>MID(A30,3,100)</f>
+        <v>focus</v>
       </c>
       <c r="D30" t="str">
-        <f>_xlfn.CONCAT("""",B30,""":",A30,",")</f>
-        <v>"green":B_green,</v>
+        <f t="shared" si="0"/>
+        <v>"focus":B_focus,</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B31" t="str">
         <f>MID(A31,3,100)</f>
-        <v>halt</v>
+        <v>for</v>
       </c>
       <c r="D31" t="str">
-        <f>_xlfn.CONCAT("""",B31,""":",A31,",")</f>
-        <v>"halt":B_halt,</v>
+        <f t="shared" si="0"/>
+        <v>"for":B_for,</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" t="str">
-        <f>MID(A32,3,100)</f>
-        <v>hide</v>
+      <c r="A32" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B32),"-","_")</f>
+        <v>B_from</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="D32" t="str">
-        <f>_xlfn.CONCAT("""",B32,""":",A32,",")</f>
-        <v>"hide":B_hide,</v>
+        <f t="shared" si="0"/>
+        <v>"from":B_from,</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B33" t="str">
         <f>MID(A33,3,100)</f>
-        <v>if</v>
+        <v>greater</v>
       </c>
       <c r="D33" t="str">
-        <f>_xlfn.CONCAT("""",B33,""":",A33,",")</f>
-        <v>"if":B_if,</v>
+        <f t="shared" ref="D33:D64" si="1">_xlfn.CONCAT("""",B33,""":",A33,",")</f>
+        <v>"greater":B_greater,</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="str">
-        <f>MID(A34,3,100)</f>
-        <v>inform</v>
+      <c r="A34" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B34),"-","_")</f>
+        <v>B_green</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D34" t="str">
-        <f>_xlfn.CONCAT("""",B34,""":",A34,",")</f>
-        <v>"inform":B_inform,</v>
+        <f t="shared" si="1"/>
+        <v>"green":B_green,</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B35" t="str">
         <f>MID(A35,3,100)</f>
-        <v>initially</v>
+        <v>halt</v>
       </c>
       <c r="D35" t="str">
-        <f>_xlfn.CONCAT("""",B35,""":",A35,",")</f>
-        <v>"initially":B_initially,</v>
+        <f t="shared" si="1"/>
+        <v>"halt":B_halt,</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B36" t="str">
         <f>MID(A36,3,100)</f>
-        <v>insert</v>
+        <v>hide</v>
       </c>
       <c r="D36" t="str">
-        <f>_xlfn.CONCAT("""",B36,""":",A36,",")</f>
-        <v>"insert":B_insert,</v>
+        <f t="shared" si="1"/>
+        <v>"hide":B_hide,</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" t="str">
-        <f>MID(A37,3,100)</f>
-        <v>instance</v>
+      <c r="A37" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B37),"-","_")</f>
+        <v>B_history</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D37" t="str">
-        <f>_xlfn.CONCAT("""",B37,""":",A37,",")</f>
-        <v>"instance":B_instance,</v>
+        <f t="shared" si="1"/>
+        <v>"history":B_history,</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B38" t="str">
         <f>MID(A38,3,100)</f>
-        <v>invoke</v>
+        <v>if</v>
       </c>
       <c r="D38" t="str">
-        <f>_xlfn.CONCAT("""",B38,""":",A38,",")</f>
-        <v>"invoke":B_invoke,</v>
+        <f t="shared" si="1"/>
+        <v>"if":B_if,</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" t="str">
-        <f>MID(A39,3,100)</f>
-        <v>is</v>
+      <c r="A39" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B39)),"-","_")</f>
+        <v>B_inference</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D39" t="str">
-        <f>_xlfn.CONCAT("""",B39,""":",A39,",")</f>
-        <v>"is":B_is,</v>
+        <f t="shared" si="1"/>
+        <v>"Inference":B_inference,</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B40" t="str">
         <f>MID(A40,3,100)</f>
-        <v>less</v>
+        <v>inform</v>
       </c>
       <c r="D40" t="str">
-        <f>_xlfn.CONCAT("""",B40,""":",A40,",")</f>
-        <v>"less":B_less,</v>
+        <f t="shared" si="1"/>
+        <v>"inform":B_inform,</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B41" t="str">
         <f>MID(A41,3,100)</f>
-        <v>move</v>
+        <v>initially</v>
       </c>
       <c r="D41" t="str">
-        <f>_xlfn.CONCAT("""",B41,""":",A41,",")</f>
-        <v>"move":B_move,</v>
+        <f t="shared" si="1"/>
+        <v>"initially":B_initially,</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B42" t="str">
         <f>MID(A42,3,100)</f>
-        <v>named</v>
+        <v>insert</v>
       </c>
       <c r="D42" t="str">
-        <f>_xlfn.CONCAT("""",B42,""":",A42,",")</f>
-        <v>"named":B_named,</v>
+        <f t="shared" si="1"/>
+        <v>"insert":B_insert,</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B43" t="str">
         <f>MID(A43,3,100)</f>
-        <v>of</v>
+        <v>instance</v>
       </c>
       <c r="D43" t="str">
-        <f>_xlfn.CONCAT("""",B43,""":",A43,",")</f>
-        <v>"of":B_of,</v>
+        <f t="shared" si="1"/>
+        <v>"instance":B_instance,</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B44),"-","_")</f>
-        <v>B_on</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>68</v>
+      <c r="A44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="str">
+        <f>MID(A44,3,100)</f>
+        <v>invoke</v>
       </c>
       <c r="D44" t="str">
-        <f>_xlfn.CONCAT("""",B44,""":",A44,",")</f>
-        <v>"on":B_on,</v>
+        <f t="shared" si="1"/>
+        <v>"invoke":B_invoke,</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2</v>
+      <c r="A45" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B45)),"-","_")</f>
+        <v>B_iot</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D45" t="str">
-        <f>_xlfn.CONCAT("""",B45,""":",A45,",")</f>
-        <v>"(":B_open_par,</v>
+        <f t="shared" si="1"/>
+        <v>"IOT":B_iot,</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B46" t="str">
         <f>MID(A46,3,100)</f>
-        <v>operator</v>
+        <v>is</v>
       </c>
       <c r="D46" t="str">
-        <f>_xlfn.CONCAT("""",B46,""":",A46,",")</f>
-        <v>"operator":B_operator,</v>
+        <f t="shared" si="1"/>
+        <v>"is":B_is,</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" t="str">
-        <f>MID(A47,3,100)</f>
-        <v>or</v>
+      <c r="A47" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B47),"-","_")</f>
+        <v>B_keep</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="D47" t="str">
-        <f>_xlfn.CONCAT("""",B47,""":",A47,",")</f>
-        <v>"or":B_or,</v>
+        <f t="shared" si="1"/>
+        <v>"keep":B_keep,</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B48" t="str">
         <f>MID(A48,3,100)</f>
-        <v>parent</v>
+        <v>less</v>
       </c>
       <c r="D48" t="str">
-        <f>_xlfn.CONCAT("""",B48,""":",A48,",")</f>
-        <v>"parent":B_parent,</v>
+        <f t="shared" si="1"/>
+        <v>"less":B_less,</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B49),"-","_")</f>
-        <v>B_red</v>
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B49)),"-","_")</f>
+        <v>B_linearregression</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D49" t="str">
-        <f>_xlfn.CONCAT("""",B49,""":",A49,",")</f>
-        <v>"red":B_red,</v>
+        <f t="shared" si="1"/>
+        <v>"LinearRegression":B_linearregression,</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" t="str">
-        <f>MID(A50,3,100)</f>
-        <v>remove</v>
+      <c r="A50" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B50)),"-","_")</f>
+        <v>B_list</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
       </c>
       <c r="D50" t="str">
-        <f>_xlfn.CONCAT("""",B50,""":",A50,",")</f>
-        <v>"remove":B_remove,</v>
+        <f t="shared" si="1"/>
+        <v>"List":B_list,</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" t="str">
-        <f>MID(A51,3,100)</f>
-        <v>rotate</v>
+      <c r="A51" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B51),"-","_")</f>
+        <v>B_method</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D51" t="str">
-        <f>_xlfn.CONCAT("""",B51,""":",A51,",")</f>
-        <v>"rotate":B_rotate,</v>
+        <f t="shared" si="1"/>
+        <v>"method":B_method,</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" t="str">
-        <f>MID(A52,3,100)</f>
-        <v>set</v>
+      <c r="A52" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B52)),"-","_")</f>
+        <v>B_montecarlo</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
       </c>
       <c r="D52" t="str">
-        <f>_xlfn.CONCAT("""",B52,""":",A52,",")</f>
-        <v>"set":B_set,</v>
+        <f t="shared" si="1"/>
+        <v>"MonteCarlo":B_montecarlo,</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B53" t="str">
         <f>MID(A53,3,100)</f>
-        <v>show</v>
+        <v>move</v>
       </c>
       <c r="D53" t="str">
-        <f>_xlfn.CONCAT("""",B53,""":",A53,",")</f>
-        <v>"show":B_show,</v>
+        <f t="shared" si="1"/>
+        <v>"move":B_move,</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B54" t="str">
         <f>MID(A54,3,100)</f>
-        <v>start</v>
+        <v>named</v>
       </c>
       <c r="D54" t="str">
-        <f>_xlfn.CONCAT("""",B54,""":",A54,",")</f>
-        <v>"start":B_start,</v>
+        <f t="shared" si="1"/>
+        <v>"named":B_named,</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B55),"-","_")</f>
-        <v>B_task_queue</v>
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B55)),"-","_")</f>
+        <v>B_normaldistribution</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D55" t="str">
-        <f>_xlfn.CONCAT("""",B55,""":",A55,",")</f>
-        <v>"task-queue":B_task_queue,</v>
+        <f t="shared" si="1"/>
+        <v>"NormalDistribution":B_normaldistribution,</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" t="str">
-        <f>MID(A56,3,100)</f>
-        <v>than</v>
+      <c r="A56" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B56)),"-","_")</f>
+        <v>B_number</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
       </c>
       <c r="D56" t="str">
-        <f>_xlfn.CONCAT("""",B56,""":",A56,",")</f>
-        <v>"than":B_than,</v>
+        <f t="shared" si="1"/>
+        <v>"Number":B_number,</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B57" t="str">
         <f>MID(A57,3,100)</f>
-        <v>that</v>
+        <v>of</v>
       </c>
       <c r="D57" t="str">
-        <f>_xlfn.CONCAT("""",B57,""":",A57,",")</f>
-        <v>"that":B_that,</v>
+        <f t="shared" si="1"/>
+        <v>"of":B_of,</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" t="str">
-        <f>MID(A58,3,100)</f>
-        <v>the</v>
+      <c r="A58" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B58),"-","_")</f>
+        <v>B_on</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="D58" t="str">
-        <f>_xlfn.CONCAT("""",B58,""":",A58,",")</f>
-        <v>"the":B_the,</v>
+        <f t="shared" si="1"/>
+        <v>"on":B_on,</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" t="str">
-        <f>MID(A59,3,100)</f>
-        <v>then</v>
+        <v>35</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
       </c>
       <c r="D59" t="str">
-        <f>_xlfn.CONCAT("""",B59,""":",A59,",")</f>
-        <v>"then":B_then,</v>
+        <f t="shared" si="1"/>
+        <v>"(":B_open_par,</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B60" t="str">
         <f>MID(A60,3,100)</f>
-        <v>to</v>
+        <v>operator</v>
       </c>
       <c r="D60" t="str">
-        <f>_xlfn.CONCAT("""",B60,""":",A60,",")</f>
-        <v>"to":B_to,</v>
+        <f t="shared" si="1"/>
+        <v>"operator":B_operator,</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B61" t="str">
         <f>MID(A61,3,100)</f>
-        <v>transfer</v>
+        <v>or</v>
       </c>
       <c r="D61" t="str">
-        <f>_xlfn.CONCAT("""",B61,""":",A61,",")</f>
-        <v>"transfer":B_transfer,</v>
+        <f t="shared" si="1"/>
+        <v>"or":B_or,</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B62" t="str">
         <f>MID(A62,3,100)</f>
-        <v>unconditionally</v>
+        <v>parent</v>
       </c>
       <c r="D62" t="str">
-        <f>_xlfn.CONCAT("""",B62,""":",A62,",")</f>
-        <v>"unconditionally":B_unconditionally,</v>
+        <f t="shared" si="1"/>
+        <v>"parent":B_parent,</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" t="str">
-        <f>MID(A63,3,100)</f>
-        <v>when</v>
+      <c r="A63" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B63),"-","_")</f>
+        <v>B_red</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D63" t="str">
-        <f>_xlfn.CONCAT("""",B63,""":",A63,",")</f>
-        <v>"when":B_when,</v>
+        <f t="shared" si="1"/>
+        <v>"red":B_red,</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B64" t="str">
         <f>MID(A64,3,100)</f>
-        <v>whenever</v>
+        <v>remove</v>
       </c>
       <c r="D64" t="str">
-        <f>_xlfn.CONCAT("""",B64,""":",A64,",")</f>
-        <v>"whenever":B_whenever,</v>
+        <f t="shared" si="1"/>
+        <v>"remove":B_remove,</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B65" t="str">
         <f>MID(A65,3,100)</f>
+        <v>rotate</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" ref="D65:D85" si="2">_xlfn.CONCAT("""",B65,""":",A65,",")</f>
+        <v>"rotate":B_rotate,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" t="str">
+        <f>MID(A66,3,100)</f>
+        <v>set</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="2"/>
+        <v>"set":B_set,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" t="str">
+        <f>MID(A67,3,100)</f>
+        <v>show</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="2"/>
+        <v>"show":B_show,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B68)),"-","_")</f>
+        <v>B_simulation</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="2"/>
+        <v>"Simulation":B_simulation,</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" t="str">
+        <f>MID(A69,3,100)</f>
+        <v>start</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="2"/>
+        <v>"start":B_start,</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B70)),"-","_")</f>
+        <v>B_string</v>
+      </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="2"/>
+        <v>"String":B_string,</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B71),"-","_")</f>
+        <v>B_task_queue</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="2"/>
+        <v>"task-queue":B_task_queue,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" ref="B72:B78" si="3">MID(A72,3,100)</f>
+        <v>than</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="2"/>
+        <v>"than":B_than,</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="3"/>
+        <v>that</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="2"/>
+        <v>"that":B_that,</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="3"/>
+        <v>the</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="2"/>
+        <v>"the":B_the,</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="3"/>
+        <v>then</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="2"/>
+        <v>"then":B_then,</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="3"/>
+        <v>to</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="2"/>
+        <v>"to":B_to,</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="3"/>
+        <v>transfer</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="2"/>
+        <v>"transfer":B_transfer,</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="3"/>
+        <v>unconditionally</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="2"/>
+        <v>"unconditionally":B_unconditionally,</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B79)),"-","_")</f>
+        <v>B_user</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="2"/>
+        <v>"User":B_user,</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B80),"-","_")</f>
+        <v>B_validity</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="2"/>
+        <v>"validity":B_validity,</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" t="str">
+        <f>MID(A81,3,100)</f>
+        <v>when</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="2"/>
+        <v>"when":B_when,</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B82" t="str">
+        <f>MID(A82,3,100)</f>
+        <v>whenever</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="2"/>
+        <v>"whenever":B_whenever,</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" t="str">
+        <f>MID(A83,3,100)</f>
         <v>whose</v>
       </c>
-      <c r="D65" t="str">
-        <f>_xlfn.CONCAT("""",B65,""":",A65,",")</f>
+      <c r="D83" t="str">
+        <f t="shared" si="2"/>
         <v>"whose":B_whose,</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B66),"-","_")</f>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B84),"-","_")</f>
         <v>B_with</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D66" t="str">
-        <f>_xlfn.CONCAT("""",B66,""":",A66,",")</f>
+      <c r="D84" t="str">
+        <f t="shared" si="2"/>
         <v>"with":B_with,</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B67),"-","_")</f>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B85),"-","_")</f>
         <v>B_yellow</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D67" t="str">
-        <f>_xlfn.CONCAT("""",B67,""":",A67,",")</f>
+      <c r="D85" t="str">
+        <f t="shared" si="2"/>
         <v>"yellow":B_yellow,</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D67">
-    <sortCondition ref="A1:A67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D85">
+    <sortCondition ref="A1:A85"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/ebnf.xlsx
+++ b/docs/ebnf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoe\git\K2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BA431D-4CBC-4C83-8163-E247597F696C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE239269-B242-4D0F-B019-3D9735E066BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{80E392AA-210C-4728-BF23-B018366DD114}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>=</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>List</t>
+  </si>
+  <si>
+    <t>class</t>
   </si>
 </sst>
 </file>
@@ -682,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44848F1A-E230-4CCD-904A-638EB14AB1EA}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D85"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +708,7 @@
         <v>a</v>
       </c>
       <c r="D1" t="str">
-        <f t="shared" ref="D1:D32" si="0">_xlfn.CONCAT("""",B1,""":",A1,",")</f>
+        <f>_xlfn.CONCAT("""",B1,""":",A1,",")</f>
         <v>"a":B_a,</v>
       </c>
     </row>
@@ -718,7 +721,7 @@
         <v>activate</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("""",B2,""":",A2,",")</f>
         <v>"activate":B_activate,</v>
       </c>
     </row>
@@ -731,7 +734,7 @@
         <v>72</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("""",B3,""":",A3,",")</f>
         <v>"add":B_add,</v>
       </c>
     </row>
@@ -744,7 +747,7 @@
         <v>71</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("""",B4,""":",A4,",")</f>
         <v>"alter":B_alter,</v>
       </c>
     </row>
@@ -757,7 +760,7 @@
         <v>an</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("""",B5,""":",A5,",")</f>
         <v>"an":B_an,</v>
       </c>
     </row>
@@ -770,7 +773,7 @@
         <v>and</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("""",B6,""":",A6,",")</f>
         <v>"and":B_and,</v>
       </c>
     </row>
@@ -783,7 +786,7 @@
         <v>any</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("""",B7,""":",A7,",")</f>
         <v>"any":B_any,</v>
       </c>
     </row>
@@ -796,7 +799,7 @@
         <v>56</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("""",B8,""":",A8,",")</f>
         <v>"are":B_are,</v>
       </c>
     </row>
@@ -809,7 +812,7 @@
         <v>73</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("""",B9,""":",A9,",")</f>
         <v>"as":B_as,</v>
       </c>
     </row>
@@ -822,7 +825,7 @@
         <v>58</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("""",B10,""":",A10,",")</f>
         <v>"at":B_at,</v>
       </c>
     </row>
@@ -835,7 +838,7 @@
         <v>64</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("""",B11,""":",A11,",")</f>
         <v>"blue":B_blue,</v>
       </c>
     </row>
@@ -848,7 +851,7 @@
         <v>55</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("""",B12,""":",A12,",")</f>
         <v>"breakpoints":B_breakpoints,</v>
       </c>
     </row>
@@ -861,7 +864,7 @@
         <v>by</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("""",B13,""":",A13,",")</f>
         <v>"by":B_by,</v>
       </c>
     </row>
@@ -874,932 +877,945 @@
         <v>change</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("""",B14,""":",A14,",")</f>
         <v>"change":B_change,</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="str">
-        <f>MID(A15,3,100)</f>
-        <v>cloning</v>
+      <c r="A15" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B15)),"-","_")</f>
+        <v>B_class</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>"cloning":B_cloning,</v>
+        <f>_xlfn.CONCAT("""",B15,""":",A15,",")</f>
+        <v>"class":B_class,</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="str">
+        <f>MID(A16,3,100)</f>
+        <v>cloning</v>
+      </c>
+      <c r="D16" t="str">
+        <f>_xlfn.CONCAT("""",B16,""":",A16,",")</f>
+        <v>"cloning":B_cloning,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
+      <c r="D17" t="str">
+        <f>_xlfn.CONCAT("""",B17,""":",A17,",")</f>
         <v>")":B_close_par,</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
+      <c r="D18" t="str">
+        <f>_xlfn.CONCAT("""",B18,""":",A18,",")</f>
         <v>",":B_comma,</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="str">
-        <f>MID(A18,3,100)</f>
-        <v>conclude</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>"conclude":B_conclude,</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="str">
         <f>MID(A19,3,100)</f>
+        <v>conclude</v>
+      </c>
+      <c r="D19" t="str">
+        <f>_xlfn.CONCAT("""",B19,""":",A19,",")</f>
+        <v>"conclude":B_conclude,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="str">
+        <f>MID(A20,3,100)</f>
         <v>create</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
+      <c r="D20" t="str">
+        <f>_xlfn.CONCAT("""",B20,""":",A20,",")</f>
         <v>"create":B_create,</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B20)),"-","_")</f>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B21)),"-","_")</f>
         <v>B_date</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>87</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
+      <c r="D21" t="str">
+        <f>_xlfn.CONCAT("""",B21,""":",A21,",")</f>
         <v>"Date":B_date,</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" t="str">
-        <f>MID(A21,3,100)</f>
+      <c r="B22" t="str">
+        <f>MID(A22,3,100)</f>
         <v>deactivate</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
+      <c r="D22" t="str">
+        <f>_xlfn.CONCAT("""",B22,""":",A22,",")</f>
         <v>"deactivate":B_deactivate,</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B22),"-","_")</f>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B23),"-","_")</f>
         <v>B_degrees</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
+      <c r="D23" t="str">
+        <f>_xlfn.CONCAT("""",B23,""":",A23,",")</f>
         <v>"degrees":B_degrees,</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="str">
-        <f>MID(A23,3,100)</f>
-        <v>delete</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>"delete":B_delete,</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="str">
         <f>MID(A24,3,100)</f>
+        <v>delete</v>
+      </c>
+      <c r="D24" t="str">
+        <f>_xlfn.CONCAT("""",B24,""":",A24,",")</f>
+        <v>"delete":B_delete,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="str">
+        <f>MID(A25,3,100)</f>
         <v>different</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
+      <c r="D25" t="str">
+        <f>_xlfn.CONCAT("""",B25,""":",A25,",")</f>
         <v>"different":B_different,</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B25),"-","_")</f>
-        <v>B_enabled</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>"enabled":B_enabled,</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("B_",B26),"-","_")</f>
+        <v>B_enabled</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="str">
+        <f>_xlfn.CONCAT("""",B26,""":",A26,",")</f>
+        <v>"enabled":B_enabled,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B27),"-","_")</f>
         <v>B_end</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
+      <c r="D27" t="str">
+        <f>_xlfn.CONCAT("""",B27,""":",A27,",")</f>
         <v>"end":B_end,</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" t="str">
-        <f>MID(A27,3,100)</f>
-        <v>equal</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>"equal":B_equal,</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="str">
+        <f>MID(A28,3,100)</f>
+        <v>equal</v>
+      </c>
+      <c r="D28" t="str">
+        <f>_xlfn.CONCAT("""",B28,""":",A28,",")</f>
+        <v>"equal":B_equal,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
+      <c r="D29" t="str">
+        <f>_xlfn.CONCAT("""",B29,""":",A29,",")</f>
         <v>"=":B_equal_sym,</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B29),"-","_")</f>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B30),"-","_")</f>
         <v>B_first_task</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
+      <c r="D30" t="str">
+        <f>_xlfn.CONCAT("""",B30,""":",A30,",")</f>
         <v>"first-task":B_first_task,</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="str">
-        <f>MID(A30,3,100)</f>
-        <v>focus</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>"focus":B_focus,</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" t="str">
         <f>MID(A31,3,100)</f>
+        <v>focus</v>
+      </c>
+      <c r="D31" t="str">
+        <f>_xlfn.CONCAT("""",B31,""":",A31,",")</f>
+        <v>"focus":B_focus,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="str">
+        <f>MID(A32,3,100)</f>
         <v>for</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
+      <c r="D32" t="str">
+        <f>_xlfn.CONCAT("""",B32,""":",A32,",")</f>
         <v>"for":B_for,</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B32),"-","_")</f>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B33),"-","_")</f>
         <v>B_from</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
+      <c r="D33" t="str">
+        <f>_xlfn.CONCAT("""",B33,""":",A33,",")</f>
         <v>"from":B_from,</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B33" t="str">
-        <f>MID(A33,3,100)</f>
+      <c r="B34" t="str">
+        <f>MID(A34,3,100)</f>
         <v>greater</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" ref="D33:D64" si="1">_xlfn.CONCAT("""",B33,""":",A33,",")</f>
+      <c r="D34" t="str">
+        <f>_xlfn.CONCAT("""",B34,""":",A34,",")</f>
         <v>"greater":B_greater,</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B34),"-","_")</f>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B35),"-","_")</f>
         <v>B_green</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D34" t="str">
-        <f t="shared" si="1"/>
+      <c r="D35" t="str">
+        <f>_xlfn.CONCAT("""",B35,""":",A35,",")</f>
         <v>"green":B_green,</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" t="str">
-        <f>MID(A35,3,100)</f>
-        <v>halt</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="1"/>
-        <v>"halt":B_halt,</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" t="str">
         <f>MID(A36,3,100)</f>
+        <v>halt</v>
+      </c>
+      <c r="D36" t="str">
+        <f>_xlfn.CONCAT("""",B36,""":",A36,",")</f>
+        <v>"halt":B_halt,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="str">
+        <f>MID(A37,3,100)</f>
         <v>hide</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="1"/>
+      <c r="D37" t="str">
+        <f>_xlfn.CONCAT("""",B37,""":",A37,",")</f>
         <v>"hide":B_hide,</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B37),"-","_")</f>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B38),"-","_")</f>
         <v>B_history</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="1"/>
+      <c r="D38" t="str">
+        <f>_xlfn.CONCAT("""",B38,""":",A38,",")</f>
         <v>"history":B_history,</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B38" t="str">
-        <f>MID(A38,3,100)</f>
+      <c r="B39" t="str">
+        <f>MID(A39,3,100)</f>
         <v>if</v>
       </c>
-      <c r="D38" t="str">
-        <f t="shared" si="1"/>
+      <c r="D39" t="str">
+        <f>_xlfn.CONCAT("""",B39,""":",A39,",")</f>
         <v>"if":B_if,</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B39)),"-","_")</f>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B40)),"-","_")</f>
         <v>B_inference</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D39" t="str">
-        <f t="shared" si="1"/>
+      <c r="D40" t="str">
+        <f>_xlfn.CONCAT("""",B40,""":",A40,",")</f>
         <v>"Inference":B_inference,</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" t="str">
-        <f>MID(A40,3,100)</f>
-        <v>inform</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="1"/>
-        <v>"inform":B_inform,</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" t="str">
         <f>MID(A41,3,100)</f>
-        <v>initially</v>
+        <v>inform</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="1"/>
-        <v>"initially":B_initially,</v>
+        <f>_xlfn.CONCAT("""",B41,""":",A41,",")</f>
+        <v>"inform":B_inform,</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" t="str">
         <f>MID(A42,3,100)</f>
-        <v>insert</v>
+        <v>initially</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="1"/>
-        <v>"insert":B_insert,</v>
+        <f>_xlfn.CONCAT("""",B42,""":",A42,",")</f>
+        <v>"initially":B_initially,</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="str">
         <f>MID(A43,3,100)</f>
-        <v>instance</v>
+        <v>insert</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="1"/>
-        <v>"instance":B_instance,</v>
+        <f>_xlfn.CONCAT("""",B43,""":",A43,",")</f>
+        <v>"insert":B_insert,</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" t="str">
         <f>MID(A44,3,100)</f>
+        <v>instance</v>
+      </c>
+      <c r="D44" t="str">
+        <f>_xlfn.CONCAT("""",B44,""":",A44,",")</f>
+        <v>"instance":B_instance,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="str">
+        <f>MID(A45,3,100)</f>
         <v>invoke</v>
       </c>
-      <c r="D44" t="str">
-        <f t="shared" si="1"/>
+      <c r="D45" t="str">
+        <f>_xlfn.CONCAT("""",B45,""":",A45,",")</f>
         <v>"invoke":B_invoke,</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B45)),"-","_")</f>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B46)),"-","_")</f>
         <v>B_iot</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="1"/>
+      <c r="D46" t="str">
+        <f>_xlfn.CONCAT("""",B46,""":",A46,",")</f>
         <v>"IOT":B_iot,</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B46" t="str">
-        <f>MID(A46,3,100)</f>
+      <c r="B47" t="str">
+        <f>MID(A47,3,100)</f>
         <v>is</v>
       </c>
-      <c r="D46" t="str">
-        <f t="shared" si="1"/>
+      <c r="D47" t="str">
+        <f>_xlfn.CONCAT("""",B47,""":",A47,",")</f>
         <v>"is":B_is,</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B47),"-","_")</f>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B48),"-","_")</f>
         <v>B_keep</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D47" t="str">
-        <f t="shared" si="1"/>
+      <c r="D48" t="str">
+        <f>_xlfn.CONCAT("""",B48,""":",A48,",")</f>
         <v>"keep":B_keep,</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B48" t="str">
-        <f>MID(A48,3,100)</f>
+      <c r="B49" t="str">
+        <f>MID(A49,3,100)</f>
         <v>less</v>
       </c>
-      <c r="D48" t="str">
-        <f t="shared" si="1"/>
+      <c r="D49" t="str">
+        <f>_xlfn.CONCAT("""",B49,""":",A49,",")</f>
         <v>"less":B_less,</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B49)),"-","_")</f>
-        <v>B_linearregression</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="1"/>
-        <v>"LinearRegression":B_linearregression,</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B50)),"-","_")</f>
-        <v>B_list</v>
-      </c>
-      <c r="B50" t="s">
-        <v>88</v>
+        <v>B_linearregression</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="1"/>
-        <v>"List":B_list,</v>
+        <f>_xlfn.CONCAT("""",B50,""":",A50,",")</f>
+        <v>"LinearRegression":B_linearregression,</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B51),"-","_")</f>
-        <v>B_method</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>77</v>
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B51)),"-","_")</f>
+        <v>B_list</v>
+      </c>
+      <c r="B51" t="s">
+        <v>88</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="1"/>
-        <v>"method":B_method,</v>
+        <f>_xlfn.CONCAT("""",B51,""":",A51,",")</f>
+        <v>"List":B_list,</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B52)),"-","_")</f>
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B52),"-","_")</f>
+        <v>B_method</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" t="str">
+        <f>_xlfn.CONCAT("""",B52,""":",A52,",")</f>
+        <v>"method":B_method,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B53)),"-","_")</f>
         <v>B_montecarlo</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>80</v>
       </c>
-      <c r="D52" t="str">
-        <f t="shared" si="1"/>
+      <c r="D53" t="str">
+        <f>_xlfn.CONCAT("""",B53,""":",A53,",")</f>
         <v>"MonteCarlo":B_montecarlo,</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" t="str">
-        <f>MID(A53,3,100)</f>
-        <v>move</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="1"/>
-        <v>"move":B_move,</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" t="str">
         <f>MID(A54,3,100)</f>
+        <v>move</v>
+      </c>
+      <c r="D54" t="str">
+        <f>_xlfn.CONCAT("""",B54,""":",A54,",")</f>
+        <v>"move":B_move,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="str">
+        <f>MID(A55,3,100)</f>
         <v>named</v>
       </c>
-      <c r="D54" t="str">
-        <f t="shared" si="1"/>
+      <c r="D55" t="str">
+        <f>_xlfn.CONCAT("""",B55,""":",A55,",")</f>
         <v>"named":B_named,</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B55)),"-","_")</f>
-        <v>B_normaldistribution</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="1"/>
-        <v>"NormalDistribution":B_normaldistribution,</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B56)),"-","_")</f>
+        <v>B_normaldistribution</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" t="str">
+        <f>_xlfn.CONCAT("""",B56,""":",A56,",")</f>
+        <v>"NormalDistribution":B_normaldistribution,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B57)),"-","_")</f>
         <v>B_number</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>86</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" si="1"/>
+      <c r="D57" t="str">
+        <f>_xlfn.CONCAT("""",B57,""":",A57,",")</f>
         <v>"Number":B_number,</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B57" t="str">
-        <f>MID(A57,3,100)</f>
+      <c r="B58" t="str">
+        <f>MID(A58,3,100)</f>
         <v>of</v>
       </c>
-      <c r="D57" t="str">
-        <f t="shared" si="1"/>
+      <c r="D58" t="str">
+        <f>_xlfn.CONCAT("""",B58,""":",A58,",")</f>
         <v>"of":B_of,</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B58),"-","_")</f>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B59),"-","_")</f>
         <v>B_on</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D58" t="str">
-        <f t="shared" si="1"/>
+      <c r="D59" t="str">
+        <f>_xlfn.CONCAT("""",B59,""":",A59,",")</f>
         <v>"on":B_on,</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" si="1"/>
-        <v>"(":B_open_par,</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" t="str">
-        <f>MID(A60,3,100)</f>
-        <v>operator</v>
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="1"/>
-        <v>"operator":B_operator,</v>
+        <f>_xlfn.CONCAT("""",B60,""":",A60,",")</f>
+        <v>"(":B_open_par,</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" t="str">
         <f>MID(A61,3,100)</f>
-        <v>or</v>
+        <v>operator</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="1"/>
-        <v>"or":B_or,</v>
+        <f>_xlfn.CONCAT("""",B61,""":",A61,",")</f>
+        <v>"operator":B_operator,</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B62" t="str">
         <f>MID(A62,3,100)</f>
+        <v>or</v>
+      </c>
+      <c r="D62" t="str">
+        <f>_xlfn.CONCAT("""",B62,""":",A62,",")</f>
+        <v>"or":B_or,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" t="str">
+        <f>MID(A63,3,100)</f>
         <v>parent</v>
       </c>
-      <c r="D62" t="str">
-        <f t="shared" si="1"/>
+      <c r="D63" t="str">
+        <f>_xlfn.CONCAT("""",B63,""":",A63,",")</f>
         <v>"parent":B_parent,</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B63),"-","_")</f>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B64),"-","_")</f>
         <v>B_red</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D63" t="str">
-        <f t="shared" si="1"/>
+      <c r="D64" t="str">
+        <f>_xlfn.CONCAT("""",B64,""":",A64,",")</f>
         <v>"red":B_red,</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" t="str">
-        <f>MID(A64,3,100)</f>
-        <v>remove</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" si="1"/>
-        <v>"remove":B_remove,</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B65" t="str">
         <f>MID(A65,3,100)</f>
-        <v>rotate</v>
+        <v>remove</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" ref="D65:D85" si="2">_xlfn.CONCAT("""",B65,""":",A65,",")</f>
-        <v>"rotate":B_rotate,</v>
+        <f>_xlfn.CONCAT("""",B65,""":",A65,",")</f>
+        <v>"remove":B_remove,</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66" t="str">
         <f>MID(A66,3,100)</f>
-        <v>set</v>
+        <v>rotate</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="2"/>
-        <v>"set":B_set,</v>
+        <f>_xlfn.CONCAT("""",B66,""":",A66,",")</f>
+        <v>"rotate":B_rotate,</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B67" t="str">
         <f>MID(A67,3,100)</f>
+        <v>set</v>
+      </c>
+      <c r="D67" t="str">
+        <f>_xlfn.CONCAT("""",B67,""":",A67,",")</f>
+        <v>"set":B_set,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" t="str">
+        <f>MID(A68,3,100)</f>
         <v>show</v>
       </c>
-      <c r="D67" t="str">
-        <f t="shared" si="2"/>
+      <c r="D68" t="str">
+        <f>_xlfn.CONCAT("""",B68,""":",A68,",")</f>
         <v>"show":B_show,</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B68)),"-","_")</f>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B69)),"-","_")</f>
         <v>B_simulation</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D68" t="str">
-        <f t="shared" si="2"/>
+      <c r="D69" t="str">
+        <f>_xlfn.CONCAT("""",B69,""":",A69,",")</f>
         <v>"Simulation":B_simulation,</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B69" t="str">
-        <f>MID(A69,3,100)</f>
+      <c r="B70" t="str">
+        <f>MID(A70,3,100)</f>
         <v>start</v>
       </c>
-      <c r="D69" t="str">
-        <f t="shared" si="2"/>
+      <c r="D70" t="str">
+        <f>_xlfn.CONCAT("""",B70,""":",A70,",")</f>
         <v>"start":B_start,</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B70)),"-","_")</f>
-        <v>B_string</v>
-      </c>
-      <c r="B70" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" t="str">
-        <f t="shared" si="2"/>
-        <v>"String":B_string,</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B71),"-","_")</f>
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B71)),"-","_")</f>
+        <v>B_string</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" t="str">
+        <f>_xlfn.CONCAT("""",B71,""":",A71,",")</f>
+        <v>"String":B_string,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B72),"-","_")</f>
         <v>B_task_queue</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D71" t="str">
-        <f t="shared" si="2"/>
+      <c r="D72" t="str">
+        <f>_xlfn.CONCAT("""",B72,""":",A72,",")</f>
         <v>"task-queue":B_task_queue,</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B72" t="str">
-        <f t="shared" ref="B72:B78" si="3">MID(A72,3,100)</f>
-        <v>than</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" si="2"/>
-        <v>"than":B_than,</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="3"/>
-        <v>that</v>
+        <f>MID(A73,3,100)</f>
+        <v>than</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="2"/>
-        <v>"that":B_that,</v>
+        <f>_xlfn.CONCAT("""",B73,""":",A73,",")</f>
+        <v>"than":B_than,</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="3"/>
-        <v>the</v>
+        <f>MID(A74,3,100)</f>
+        <v>that</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="2"/>
-        <v>"the":B_the,</v>
+        <f>_xlfn.CONCAT("""",B74,""":",A74,",")</f>
+        <v>"that":B_that,</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="3"/>
-        <v>then</v>
+        <f>MID(A75,3,100)</f>
+        <v>the</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="2"/>
-        <v>"then":B_then,</v>
+        <f>_xlfn.CONCAT("""",B75,""":",A75,",")</f>
+        <v>"the":B_the,</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="3"/>
-        <v>to</v>
+        <f>MID(A76,3,100)</f>
+        <v>then</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="2"/>
-        <v>"to":B_to,</v>
+        <f>_xlfn.CONCAT("""",B76,""":",A76,",")</f>
+        <v>"then":B_then,</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="3"/>
-        <v>transfer</v>
+        <f>MID(A77,3,100)</f>
+        <v>to</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="2"/>
-        <v>"transfer":B_transfer,</v>
+        <f>_xlfn.CONCAT("""",B77,""":",A77,",")</f>
+        <v>"to":B_to,</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" t="str">
+        <f>MID(A78,3,100)</f>
+        <v>transfer</v>
+      </c>
+      <c r="D78" t="str">
+        <f>_xlfn.CONCAT("""",B78,""":",A78,",")</f>
+        <v>"transfer":B_transfer,</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B78" t="str">
-        <f t="shared" si="3"/>
+      <c r="B79" t="str">
+        <f>MID(A79,3,100)</f>
         <v>unconditionally</v>
       </c>
-      <c r="D78" t="str">
-        <f t="shared" si="2"/>
+      <c r="D79" t="str">
+        <f>_xlfn.CONCAT("""",B79,""":",A79,",")</f>
         <v>"unconditionally":B_unconditionally,</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B79)),"-","_")</f>
-        <v>B_user</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" t="str">
-        <f t="shared" si="2"/>
-        <v>"User":B_user,</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B80),"-","_")</f>
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",LOWER(B80)),"-","_")</f>
+        <v>B_user</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="str">
+        <f>_xlfn.CONCAT("""",B80,""":",A80,",")</f>
+        <v>"User":B_user,</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B81),"-","_")</f>
         <v>B_validity</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D80" t="str">
-        <f t="shared" si="2"/>
+      <c r="D81" t="str">
+        <f>_xlfn.CONCAT("""",B81,""":",A81,",")</f>
         <v>"validity":B_validity,</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B81" t="str">
-        <f>MID(A81,3,100)</f>
-        <v>when</v>
-      </c>
-      <c r="D81" t="str">
-        <f t="shared" si="2"/>
-        <v>"when":B_when,</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B82" t="str">
         <f>MID(A82,3,100)</f>
-        <v>whenever</v>
+        <v>when</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="2"/>
-        <v>"whenever":B_whenever,</v>
+        <f>_xlfn.CONCAT("""",B82,""":",A82,",")</f>
+        <v>"when":B_when,</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B83" t="str">
         <f>MID(A83,3,100)</f>
+        <v>whenever</v>
+      </c>
+      <c r="D83" t="str">
+        <f>_xlfn.CONCAT("""",B83,""":",A83,",")</f>
+        <v>"whenever":B_whenever,</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" t="str">
+        <f>MID(A84,3,100)</f>
         <v>whose</v>
       </c>
-      <c r="D83" t="str">
-        <f t="shared" si="2"/>
+      <c r="D84" t="str">
+        <f>_xlfn.CONCAT("""",B84,""":",A84,",")</f>
         <v>"whose":B_whose,</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B84),"-","_")</f>
-        <v>B_with</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D84" t="str">
-        <f t="shared" si="2"/>
-        <v>"with":B_with,</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("B_",B85),"-","_")</f>
+        <v>B_with</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" t="str">
+        <f>_xlfn.CONCAT("""",B85,""":",A85,",")</f>
+        <v>"with":B_with,</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("B_",B86),"-","_")</f>
         <v>B_yellow</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D85" t="str">
-        <f t="shared" si="2"/>
+      <c r="D86" t="str">
+        <f>_xlfn.CONCAT("""",B86,""":",A86,",")</f>
         <v>"yellow":B_yellow,</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D85">
-    <sortCondition ref="A1:A85"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D86">
+    <sortCondition ref="A1:A86"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
